--- a/veri1.xlsx
+++ b/veri1.xlsx
@@ -1,35 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221494FE-2FB0-FB42-94DD-8A5A5243B17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Tarih</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Tuketim</t>
   </si>
@@ -45,15 +31,18 @@
   <si>
     <t>SUE</t>
   </si>
+  <si>
+    <t>Tarih</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="167" formatCode="yyyy"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -67,6 +56,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
     <font>
       <sz val="11"/>
@@ -95,7 +86,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -108,7 +99,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -127,7 +120,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -202,23 +195,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -254,23 +230,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -446,42 +405,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="247" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
-        <v>29374</v>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1980</v>
       </c>
       <c r="B2" s="2">
         <v>20398</v>
@@ -499,9 +457,9 @@
         <v>14.987713915880784</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <v>29740</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1981</v>
       </c>
       <c r="B3" s="2">
         <v>22030</v>
@@ -519,9 +477,9 @@
         <v>16.326378915880785</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>30106</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1982</v>
       </c>
       <c r="B4" s="2">
         <v>23587</v>
@@ -539,9 +497,9 @@
         <v>17.665043915880783</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>30472</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1983</v>
       </c>
       <c r="B5" s="2">
         <v>24465</v>
@@ -559,9 +517,9 @@
         <v>19.003708915880782</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>30838</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1984</v>
       </c>
       <c r="B6" s="2">
         <v>27635</v>
@@ -579,9 +537,9 @@
         <v>20.342373915880781</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>31204</v>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1985</v>
       </c>
       <c r="B7" s="2">
         <v>29709</v>
@@ -599,9 +557,9 @@
         <v>21.68103891588078</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>31570</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1986</v>
       </c>
       <c r="B8" s="2">
         <v>32210</v>
@@ -619,9 +577,9 @@
         <v>24.35836980010713</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>31936</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1987</v>
       </c>
       <c r="B9" s="2">
         <v>36697</v>
@@ -639,9 +597,9 @@
         <v>27.004762261676305</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>32302</v>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1988</v>
       </c>
       <c r="B10" s="2">
         <v>39722</v>
@@ -659,9 +617,9 @@
         <v>27.939704014501956</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>32668</v>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1989</v>
       </c>
       <c r="B11" s="2">
         <v>43120</v>
@@ -679,9 +637,9 @@
         <v>28.573005935154537</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <v>33034</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1990</v>
       </c>
       <c r="B12" s="2">
         <v>46820</v>
@@ -699,9 +657,9 @@
         <v>31.575027154405465</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <v>33400</v>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1991</v>
       </c>
       <c r="B13" s="2">
         <v>49283</v>
@@ -719,9 +677,9 @@
         <v>32.473056289505443</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <v>33766</v>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1992</v>
       </c>
       <c r="B14" s="2">
         <v>53985</v>
@@ -739,9 +697,9 @@
         <v>33.621403460545046</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
-        <v>34132</v>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1993</v>
       </c>
       <c r="B15" s="2">
         <v>59237</v>
@@ -759,9 +717,9 @@
         <v>35.830104494686076</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
-        <v>34498</v>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1994</v>
       </c>
       <c r="B16" s="2">
         <v>61401</v>
@@ -779,9 +737,9 @@
         <v>33.551690606257196</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
-        <v>34864</v>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1995</v>
       </c>
       <c r="B17" s="2">
         <v>67394</v>
@@ -799,9 +757,9 @@
         <v>36.367141907526872</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
-        <v>35230</v>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1996</v>
       </c>
       <c r="B18" s="2">
         <v>74157</v>
@@ -819,9 +777,9 @@
         <v>38.487839504109047</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
-        <v>35596</v>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1997</v>
       </c>
       <c r="B19" s="2">
         <v>81885</v>
@@ -839,9 +797,9 @@
         <v>41.89423841916085</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>35962</v>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1998</v>
       </c>
       <c r="B20" s="2">
         <v>87705</v>
@@ -859,9 +817,9 @@
         <v>42.702531348020045</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
-        <v>36328</v>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1999</v>
       </c>
       <c r="B21" s="2">
         <v>91202</v>
@@ -879,9 +837,9 @@
         <v>41.311909782109218</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
-        <v>36694</v>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2000</v>
       </c>
       <c r="B22" s="2">
         <v>98296</v>
@@ -899,9 +857,9 @@
         <v>43.869998439598049</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
-        <v>37060</v>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2001</v>
       </c>
       <c r="B23" s="2">
         <v>97070</v>
@@ -919,9 +877,9 @@
         <v>40.201124265379406</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
-        <v>37426</v>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2002</v>
       </c>
       <c r="B24" s="2">
         <v>102948</v>
@@ -939,9 +897,9 @@
         <v>43.845477423560347</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
-        <v>37792</v>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2003</v>
       </c>
       <c r="B25" s="2">
         <v>111766</v>
@@ -959,9 +917,9 @@
         <v>47.747169343324835</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
-        <v>38158</v>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2004</v>
       </c>
       <c r="B26" s="2">
         <v>121142</v>
@@ -979,9 +937,9 @@
         <v>52.069656772850749</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
-        <v>38524</v>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2005</v>
       </c>
       <c r="B27" s="2">
         <v>130263</v>
@@ -999,9 +957,9 @@
         <v>59.614584558551194</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
-        <v>38890</v>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2006</v>
       </c>
       <c r="B28" s="2">
         <v>143070</v>
@@ -1019,9 +977,9 @@
         <v>63.985869810171643</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
-        <v>39256</v>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2007</v>
       </c>
       <c r="B29" s="2">
         <v>155135</v>
@@ -1039,9 +997,9 @@
         <v>69.422193898506535</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
-        <v>39622</v>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2008</v>
       </c>
       <c r="B30" s="2">
         <v>161948</v>
@@ -1059,9 +1017,9 @@
         <v>68.777974014927466</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
-        <v>39988</v>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2009</v>
       </c>
       <c r="B31" s="2">
         <v>156894</v>
@@ -1079,9 +1037,9 @@
         <v>61.41215229515344</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
-        <v>40354</v>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2010</v>
       </c>
       <c r="B32" s="2">
         <v>172051</v>
@@ -1099,9 +1057,9 @@
         <v>69.842015702636303</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
-        <v>40720</v>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2011</v>
       </c>
       <c r="B33" s="2">
         <v>186100</v>
@@ -1119,9 +1077,9 @@
         <v>80.106943124460926</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
-        <v>41086</v>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2012</v>
       </c>
       <c r="B34" s="2">
         <v>194923</v>
@@ -1139,9 +1097,9 @@
         <v>83.441348179077934</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
-        <v>41452</v>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2013</v>
       </c>
       <c r="B35" s="2">
         <v>198045</v>
@@ -1159,9 +1117,9 @@
         <v>89.441974230681282</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="8">
-        <v>41818</v>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2014</v>
       </c>
       <c r="B36" s="2">
         <v>207375</v>
@@ -1179,9 +1137,9 @@
         <v>94.52584061901554</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="8">
-        <v>42184</v>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2015</v>
       </c>
       <c r="B37" s="2">
         <v>217312</v>
@@ -1199,9 +1157,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="8">
-        <v>42550</v>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2016</v>
       </c>
       <c r="B38" s="2">
         <v>231204</v>
@@ -1219,9 +1177,9 @@
         <v>103.41124662750768</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="8">
-        <v>42916</v>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2017</v>
       </c>
       <c r="B39" s="2">
         <v>249023</v>
@@ -1239,9 +1197,9 @@
         <v>112.70019857045992</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="8">
-        <v>43282</v>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2018</v>
       </c>
       <c r="B40" s="2">
         <v>258232</v>
@@ -1259,9 +1217,9 @@
         <v>114.18635959509072</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="8">
-        <v>43648</v>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2019</v>
       </c>
       <c r="B41" s="2">
         <v>257273</v>
@@ -1279,9 +1237,9 @@
         <v>113.60304922447939</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="8">
-        <v>44014</v>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2020</v>
       </c>
       <c r="B42" s="2">
         <v>259511</v>
@@ -1307,4 +1265,1275 @@
   </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11.5703125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1980</v>
+      </c>
+      <c r="B2" s="10">
+        <v>25279.777767539024</v>
+      </c>
+      <c r="C2" s="8">
+        <v>68.789289565743445</v>
+      </c>
+      <c r="D2" s="9">
+        <v>7.2004726298766858E-3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44439</v>
+      </c>
+      <c r="F2" s="9">
+        <v>14.987713915880784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1981</v>
+      </c>
+      <c r="B3" s="10">
+        <v>25824.167919278145</v>
+      </c>
+      <c r="C3" s="8">
+        <v>70.879561131901937</v>
+      </c>
+      <c r="D3" s="9">
+        <v>-0.25730092858299664</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45532</v>
+      </c>
+      <c r="F3" s="9">
+        <v>16.312245338527038</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1982</v>
+      </c>
+      <c r="B4" s="10">
+        <v>26671.122989296913</v>
+      </c>
+      <c r="C4" s="8">
+        <v>64.546332580758275</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.4443551052777195E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>46688</v>
+      </c>
+      <c r="F4" s="9">
+        <v>17.665043915880783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1983</v>
+      </c>
+      <c r="B5" s="10">
+        <v>27820.642978072166</v>
+      </c>
+      <c r="C5" s="8">
+        <v>61.678280115498744</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1.9142752520387343E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>47864</v>
+      </c>
+      <c r="F5" s="9">
+        <v>19.003708915880782</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1984</v>
+      </c>
+      <c r="B6" s="10">
+        <v>29272.727885365486</v>
+      </c>
+      <c r="C6" s="8">
+        <v>59.82945044929621</v>
+      </c>
+      <c r="D6" s="9">
+        <v>-0.23789620068143993</v>
+      </c>
+      <c r="E6" s="2">
+        <v>49062</v>
+      </c>
+      <c r="F6" s="9">
+        <v>20.328240338527035</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1985</v>
+      </c>
+      <c r="B7" s="10">
+        <v>31027.377711176872</v>
+      </c>
+      <c r="C7" s="8">
+        <v>67.39540727314035</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.31648995348106301</v>
+      </c>
+      <c r="E7" s="2">
+        <v>50314</v>
+      </c>
+      <c r="F7" s="9">
+        <v>21.695172493234526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1986</v>
+      </c>
+      <c r="B8" s="10">
+        <v>33084.592455744743</v>
+      </c>
+      <c r="C8" s="8">
+        <v>75.24663293716273</v>
+      </c>
+      <c r="D8" s="9">
+        <v>-0.73421662926989828</v>
+      </c>
+      <c r="E8" s="2">
+        <v>51456</v>
+      </c>
+      <c r="F8" s="9">
+        <v>24.315969068045895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1987</v>
+      </c>
+      <c r="B9" s="10">
+        <v>35444.372119069099</v>
+      </c>
+      <c r="C9" s="8">
+        <v>87.654166553956671</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.90739472222732731</v>
+      </c>
+      <c r="E9" s="2">
+        <v>52393</v>
+      </c>
+      <c r="F9" s="9">
+        <v>27.04716299373754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1988</v>
+      </c>
+      <c r="B10" s="10">
+        <v>38106.716700792313</v>
+      </c>
+      <c r="C10" s="8">
+        <v>91.013273013533436</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.44606803794240302</v>
+      </c>
+      <c r="E10" s="2">
+        <v>53275</v>
+      </c>
+      <c r="F10" s="9">
+        <v>27.953837591855702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1989</v>
+      </c>
+      <c r="B11" s="10">
+        <v>41071.626201152802</v>
+      </c>
+      <c r="C11" s="8">
+        <v>107.3038076756357</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.58111188674879755</v>
+      </c>
+      <c r="E11" s="2">
+        <v>54199</v>
+      </c>
+      <c r="F11" s="9">
+        <v>28.587139512508283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1990</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44339.100620031357</v>
+      </c>
+      <c r="C12" s="8">
+        <v>150.67629109421</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.54108692379756074</v>
+      </c>
+      <c r="E12" s="2">
+        <v>55120</v>
+      </c>
+      <c r="F12" s="9">
+        <v>31.575027154405465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1991</v>
+      </c>
+      <c r="B13" s="10">
+        <v>47909.139957547188</v>
+      </c>
+      <c r="C13" s="8">
+        <v>149.86737432479165</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.5992419876536097</v>
+      </c>
+      <c r="E13" s="2">
+        <v>56047</v>
+      </c>
+      <c r="F13" s="9">
+        <v>32.458922712151697</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1992</v>
+      </c>
+      <c r="B14" s="10">
+        <v>51781.744213700294</v>
+      </c>
+      <c r="C14" s="8">
+        <v>158.78004845186601</v>
+      </c>
+      <c r="D14" s="9">
+        <v>2.0414862405652614</v>
+      </c>
+      <c r="E14" s="2">
+        <v>57001</v>
+      </c>
+      <c r="F14" s="9">
+        <v>33.649670615252539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1993</v>
+      </c>
+      <c r="B15" s="10">
+        <v>55956.913388371468</v>
+      </c>
+      <c r="C15" s="8">
+        <v>180.65111338926147</v>
+      </c>
+      <c r="D15" s="9">
+        <v>3.5327721833584955</v>
+      </c>
+      <c r="E15" s="2">
+        <v>57936</v>
+      </c>
+      <c r="F15" s="9">
+        <v>35.872505226747307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1994</v>
+      </c>
+      <c r="B16" s="10">
+        <v>60434.647482037544</v>
+      </c>
+      <c r="C16" s="8">
+        <v>130.36925428021391</v>
+      </c>
+      <c r="D16" s="9">
+        <v>4.78892752285903</v>
+      </c>
+      <c r="E16" s="2">
+        <v>58821</v>
+      </c>
+      <c r="F16" s="9">
+        <v>33.523423451549704</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1995</v>
+      </c>
+      <c r="B17" s="10">
+        <v>65214.946493983269</v>
+      </c>
+      <c r="C17" s="8">
+        <v>169.96731807366001</v>
+      </c>
+      <c r="D17" s="9">
+        <v>11.490335266545685</v>
+      </c>
+      <c r="E17" s="2">
+        <v>59779</v>
+      </c>
+      <c r="F17" s="9">
+        <v>36.409542639588103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1996</v>
+      </c>
+      <c r="B18" s="10">
+        <v>70297.81042444706</v>
+      </c>
+      <c r="C18" s="8">
+        <v>180.99417825693018</v>
+      </c>
+      <c r="D18" s="9">
+        <v>19.530765410520118</v>
+      </c>
+      <c r="E18" s="2">
+        <v>60647</v>
+      </c>
+      <c r="F18" s="9">
+        <v>38.445438772047815</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1997</v>
+      </c>
+      <c r="B19" s="10">
+        <v>75683.239273667336</v>
+      </c>
+      <c r="C19" s="8">
+        <v>190.31602613688247</v>
+      </c>
+      <c r="D19" s="9">
+        <v>40.50003063945087</v>
+      </c>
+      <c r="E19" s="2">
+        <v>61605</v>
+      </c>
+      <c r="F19" s="9">
+        <v>41.936639151222082</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1998</v>
+      </c>
+      <c r="B20" s="10">
+        <v>81371.233041405678</v>
+      </c>
+      <c r="C20" s="8">
+        <v>276.28831195647734</v>
+      </c>
+      <c r="D20" s="9">
+        <v>72.429253291374934</v>
+      </c>
+      <c r="E20" s="2">
+        <v>62479</v>
+      </c>
+      <c r="F20" s="9">
+        <v>42.730798502727538</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1999</v>
+      </c>
+      <c r="B21" s="10">
+        <v>87361.791727781296</v>
+      </c>
+      <c r="C21" s="8">
+        <v>256.70644308871664</v>
+      </c>
+      <c r="D21" s="9">
+        <v>107.70070008387329</v>
+      </c>
+      <c r="E21" s="2">
+        <v>63379</v>
+      </c>
+      <c r="F21" s="9">
+        <v>41.340176936816711</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22" s="10">
+        <v>93654.915333032608</v>
+      </c>
+      <c r="C22" s="8">
+        <v>274.78433607872813</v>
+      </c>
+      <c r="D22" s="9">
+        <v>171.47124730133913</v>
+      </c>
+      <c r="E22" s="2">
+        <v>64292</v>
+      </c>
+      <c r="F22" s="9">
+        <v>43.912399171659281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2001</v>
+      </c>
+      <c r="B23" s="10">
+        <v>100250.60385656357</v>
+      </c>
+      <c r="C23" s="8">
+        <v>202.23252544272691</v>
+      </c>
+      <c r="D23" s="9">
+        <v>246.23329202396971</v>
+      </c>
+      <c r="E23" s="2">
+        <v>65189</v>
+      </c>
+      <c r="F23" s="9">
+        <v>40.243524997440637</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2002</v>
+      </c>
+      <c r="B24" s="10">
+        <v>107148.8572987318</v>
+      </c>
+      <c r="C24" s="8">
+        <v>240.41367530365847</v>
+      </c>
+      <c r="D24" s="9">
+        <v>359.62704890860584</v>
+      </c>
+      <c r="E24" s="2">
+        <v>66010</v>
+      </c>
+      <c r="F24" s="9">
+        <v>43.859611000914093</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2003</v>
+      </c>
+      <c r="B25" s="10">
+        <v>114349.67565953732</v>
+      </c>
+      <c r="C25" s="8">
+        <v>314.75288708502916</v>
+      </c>
+      <c r="D25" s="9">
+        <v>468.28332387457351</v>
+      </c>
+      <c r="E25" s="2">
+        <v>66802</v>
+      </c>
+      <c r="F25" s="9">
+        <v>47.761302920678581</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2004</v>
+      </c>
+      <c r="B26" s="10">
+        <v>121853.05893886089</v>
+      </c>
+      <c r="C26" s="8">
+        <v>409.03650166024289</v>
+      </c>
+      <c r="D26" s="9">
+        <v>577.29167479203841</v>
+      </c>
+      <c r="E26" s="2">
+        <v>67606</v>
+      </c>
+      <c r="F26" s="9">
+        <v>52.083790350204495</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2005</v>
+      </c>
+      <c r="B27" s="10">
+        <v>129659.00713682175</v>
+      </c>
+      <c r="C27" s="8">
+        <v>506.62922949371341</v>
+      </c>
+      <c r="D27" s="9">
+        <v>674.23929772038798</v>
+      </c>
+      <c r="E27" s="2">
+        <v>68450</v>
+      </c>
+      <c r="F27" s="9">
+        <v>59.642851713258686</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2006</v>
+      </c>
+      <c r="B28" s="10">
+        <v>137767.52025341988</v>
+      </c>
+      <c r="C28" s="8">
+        <v>556.57645202582739</v>
+      </c>
+      <c r="D28" s="9">
+        <v>788.42302264437467</v>
+      </c>
+      <c r="E28" s="2">
+        <v>69271</v>
+      </c>
+      <c r="F28" s="9">
+        <v>63.943469078110411</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2007</v>
+      </c>
+      <c r="B29" s="10">
+        <v>146178.5982888937</v>
+      </c>
+      <c r="C29" s="8">
+        <v>716.88599999999997</v>
+      </c>
+      <c r="D29" s="8">
+        <v>975.28499999999997</v>
+      </c>
+      <c r="E29">
+        <v>70596</v>
+      </c>
+      <c r="F29">
+        <v>69.102000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2008</v>
+      </c>
+      <c r="B30" s="10">
+        <v>154892.24124264717</v>
+      </c>
+      <c r="C30" s="8">
+        <v>764.04499999999996</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1057.3699999999999</v>
+      </c>
+      <c r="E30">
+        <v>71488</v>
+      </c>
+      <c r="F30">
+        <v>72.83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2009</v>
+      </c>
+      <c r="B31" s="10">
+        <v>163908.44911515713</v>
+      </c>
+      <c r="C31" s="8">
+        <v>692.524</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1115.3699999999999</v>
+      </c>
+      <c r="E31">
+        <v>72454</v>
+      </c>
+      <c r="F31">
+        <v>62.375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2010</v>
+      </c>
+      <c r="B32" s="10">
+        <v>173227.22190606594</v>
+      </c>
+      <c r="C32" s="8">
+        <v>810.49900000000002</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1310.52</v>
+      </c>
+      <c r="E32">
+        <v>73528</v>
+      </c>
+      <c r="F32">
+        <v>69.364000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2011</v>
+      </c>
+      <c r="B33" s="10">
+        <v>182848.55961573124</v>
+      </c>
+      <c r="C33" s="8">
+        <v>870.01900000000001</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1538.79</v>
+      </c>
+      <c r="E33">
+        <v>74629</v>
+      </c>
+      <c r="F33">
+        <v>80.893000000000001</v>
+      </c>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2012</v>
+      </c>
+      <c r="B34" s="10">
+        <v>192772.4622439146</v>
+      </c>
+      <c r="C34" s="8">
+        <v>920.76599999999996</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1746.72</v>
+      </c>
+      <c r="E34">
+        <v>75636</v>
+      </c>
+      <c r="F34">
+        <v>85.087999999999994</v>
+      </c>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2013</v>
+      </c>
+      <c r="B35" s="10">
+        <v>202998.92979097366</v>
+      </c>
+      <c r="C35" s="8">
+        <v>978.65300000000002</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1997.47</v>
+      </c>
+      <c r="E35">
+        <v>76611</v>
+      </c>
+      <c r="F35">
+        <v>90.847999999999999</v>
+      </c>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2014</v>
+      </c>
+      <c r="B36" s="10">
+        <v>213527.96225643158</v>
+      </c>
+      <c r="C36" s="8">
+        <v>946.96900000000005</v>
+      </c>
+      <c r="D36" s="8">
+        <v>2262.98</v>
+      </c>
+      <c r="E36">
+        <v>77634</v>
+      </c>
+      <c r="F36">
+        <v>94.786000000000001</v>
+      </c>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2015</v>
+      </c>
+      <c r="B37" s="10">
+        <v>224359.55964040756</v>
+      </c>
+      <c r="C37" s="8">
+        <v>888.28200000000004</v>
+      </c>
+      <c r="D37" s="8">
+        <v>2567.29</v>
+      </c>
+      <c r="E37">
+        <v>78681</v>
+      </c>
+      <c r="F37">
+        <v>99.647999999999996</v>
+      </c>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2016</v>
+      </c>
+      <c r="B38" s="10">
+        <v>235493.72194314003</v>
+      </c>
+      <c r="C38" s="8">
+        <v>890.197</v>
+      </c>
+      <c r="D38" s="8">
+        <v>2936.44</v>
+      </c>
+      <c r="E38">
+        <v>79743</v>
+      </c>
+      <c r="F38">
+        <v>99.869</v>
+      </c>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2017</v>
+      </c>
+      <c r="B39" s="10">
+        <v>246930.44916439056</v>
+      </c>
+      <c r="C39" s="8">
+        <v>864.31600000000003</v>
+      </c>
+      <c r="D39" s="8">
+        <v>3510.01</v>
+      </c>
+      <c r="E39">
+        <v>80798</v>
+      </c>
+      <c r="F39">
+        <v>109.631</v>
+      </c>
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2018</v>
+      </c>
+      <c r="B40" s="10">
+        <v>258669.74130415916</v>
+      </c>
+      <c r="C40" s="8">
+        <v>795.87099999999998</v>
+      </c>
+      <c r="D40" s="8">
+        <v>4145.37</v>
+      </c>
+      <c r="E40">
+        <v>81833</v>
+      </c>
+      <c r="F40">
+        <v>117.069</v>
+      </c>
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2019</v>
+      </c>
+      <c r="B41" s="10">
+        <v>270711.59836292267</v>
+      </c>
+      <c r="C41" s="8">
+        <v>756.13099999999997</v>
+      </c>
+      <c r="D41" s="8">
+        <v>4601.8999999999996</v>
+      </c>
+      <c r="E41">
+        <v>83040</v>
+      </c>
+      <c r="F41">
+        <v>111.33499999999999</v>
+      </c>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2020</v>
+      </c>
+      <c r="B42" s="10">
+        <v>283056.02033996582</v>
+      </c>
+      <c r="C42" s="8">
+        <v>707.952</v>
+      </c>
+      <c r="D42" s="8">
+        <v>4631.63</v>
+      </c>
+      <c r="E42">
+        <v>83057</v>
+      </c>
+      <c r="F42">
+        <v>124.044</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2021</v>
+      </c>
+      <c r="B43" s="10">
+        <v>295703.00723552704</v>
+      </c>
+      <c r="C43" s="8">
+        <v>721.81899999999996</v>
+      </c>
+      <c r="D43" s="8">
+        <v>5074.24</v>
+      </c>
+      <c r="E43">
+        <v>83272</v>
+      </c>
+      <c r="F43">
+        <v>129.81100000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2022</v>
+      </c>
+      <c r="B44" s="10">
+        <v>308652.55904984474</v>
+      </c>
+      <c r="C44" s="8">
+        <v>750.40200000000004</v>
+      </c>
+      <c r="D44" s="8">
+        <v>5603.55</v>
+      </c>
+      <c r="E44">
+        <v>84215</v>
+      </c>
+      <c r="F44">
+        <v>139.14599999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2023</v>
+      </c>
+      <c r="B45" s="10">
+        <v>321904.67578268051</v>
+      </c>
+      <c r="C45" s="8">
+        <v>776.18799999999999</v>
+      </c>
+      <c r="D45" s="8">
+        <v>6193.39</v>
+      </c>
+      <c r="E45">
+        <v>85756</v>
+      </c>
+      <c r="F45">
+        <v>147.16399999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2024</v>
+      </c>
+      <c r="B46" s="10">
+        <v>335459.35743415356</v>
+      </c>
+      <c r="C46" s="8">
+        <v>798.69</v>
+      </c>
+      <c r="D46" s="8">
+        <v>6844.13</v>
+      </c>
+      <c r="E46">
+        <v>86941</v>
+      </c>
+      <c r="F46">
+        <v>154.47900000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2025</v>
+      </c>
+      <c r="B47" s="10">
+        <v>349316.60400426388</v>
+      </c>
+      <c r="C47" s="8">
+        <v>817.65700000000004</v>
+      </c>
+      <c r="D47" s="8">
+        <v>7563.09</v>
+      </c>
+      <c r="E47">
+        <v>88173</v>
+      </c>
+      <c r="F47">
+        <v>161.12899999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2026</v>
+      </c>
+      <c r="B48" s="10">
+        <v>363476.41549313068</v>
+      </c>
+      <c r="C48" s="8">
+        <v>833.43299999999999</v>
+      </c>
+      <c r="D48" s="8">
+        <v>8357.49</v>
+      </c>
+      <c r="E48">
+        <v>89509</v>
+      </c>
+      <c r="F48">
+        <v>167.072</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2027</v>
+      </c>
+      <c r="B49" s="10">
+        <v>377938.79190051556</v>
+      </c>
+      <c r="C49" s="8">
+        <v>846.303</v>
+      </c>
+      <c r="D49" s="8">
+        <v>9235.2099999999991</v>
+      </c>
+      <c r="E49">
+        <v>90812</v>
+      </c>
+      <c r="F49">
+        <v>172.29300000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2028</v>
+      </c>
+      <c r="B50" s="10">
+        <v>392703.73322629929</v>
+      </c>
+      <c r="C50" s="8">
+        <v>856.67600000000004</v>
+      </c>
+      <c r="D50" s="8">
+        <v>10205</v>
+      </c>
+      <c r="E50">
+        <v>92137</v>
+      </c>
+      <c r="F50">
+        <v>176.815</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2029</v>
+      </c>
+      <c r="B51" s="10">
+        <v>407771.2394708395</v>
+      </c>
+      <c r="C51" s="8">
+        <v>864.95</v>
+      </c>
+      <c r="D51" s="8">
+        <v>11276.5</v>
+      </c>
+      <c r="E51">
+        <v>93495</v>
+      </c>
+      <c r="F51">
+        <v>180.68600000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2030</v>
+      </c>
+      <c r="B52" s="10">
+        <v>423141.31063389778</v>
+      </c>
+      <c r="C52" s="8">
+        <v>871.50300000000004</v>
+      </c>
+      <c r="D52" s="8">
+        <v>12460.3</v>
+      </c>
+      <c r="E52">
+        <v>94865</v>
+      </c>
+      <c r="F52">
+        <v>183.96700000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2031</v>
+      </c>
+      <c r="B53" s="10">
+        <v>438813.94671559334</v>
+      </c>
+      <c r="C53" s="8">
+        <v>876.66099999999994</v>
+      </c>
+      <c r="D53" s="8">
+        <v>13768.4</v>
+      </c>
+      <c r="E53">
+        <v>96256</v>
+      </c>
+      <c r="F53">
+        <v>186.72399999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2032</v>
+      </c>
+      <c r="B54" s="10">
+        <v>454789.14771616459</v>
+      </c>
+      <c r="C54" s="8">
+        <v>880.70600000000002</v>
+      </c>
+      <c r="D54" s="8">
+        <v>15213.6</v>
+      </c>
+      <c r="E54">
+        <v>97668</v>
+      </c>
+      <c r="F54">
+        <v>189.02500000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2033</v>
+      </c>
+      <c r="B55" s="10">
+        <v>471066.9136351347</v>
+      </c>
+      <c r="C55" s="8">
+        <v>883.86599999999999</v>
+      </c>
+      <c r="D55" s="8">
+        <v>16810.400000000001</v>
+      </c>
+      <c r="E55">
+        <v>99101</v>
+      </c>
+      <c r="F55">
+        <v>190.934</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2034</v>
+      </c>
+      <c r="B56" s="10">
+        <v>487647.24447262287</v>
+      </c>
+      <c r="C56" s="8">
+        <v>886.32899999999995</v>
+      </c>
+      <c r="D56" s="8">
+        <v>18574.7</v>
+      </c>
+      <c r="E56">
+        <v>100555</v>
+      </c>
+      <c r="F56">
+        <v>192.511</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2035</v>
+      </c>
+      <c r="B57" s="10">
+        <v>504530.14022874832</v>
+      </c>
+      <c r="C57" s="8">
+        <v>888.24599999999998</v>
+      </c>
+      <c r="D57" s="8">
+        <v>20524.099999999999</v>
+      </c>
+      <c r="E57">
+        <v>102030</v>
+      </c>
+      <c r="F57">
+        <v>193.80600000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2036</v>
+      </c>
+      <c r="B58" s="10">
+        <v>521715.60090351105</v>
+      </c>
+      <c r="C58" s="8">
+        <v>889.73400000000004</v>
+      </c>
+      <c r="D58" s="8">
+        <v>22677.9</v>
+      </c>
+      <c r="E58">
+        <v>103527</v>
+      </c>
+      <c r="F58">
+        <v>194.86799999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2037</v>
+      </c>
+      <c r="B59" s="10">
+        <v>539203.62649679184</v>
+      </c>
+      <c r="C59" s="8">
+        <v>890.88900000000001</v>
+      </c>
+      <c r="D59" s="8">
+        <v>25057.599999999999</v>
+      </c>
+      <c r="E59">
+        <v>105045</v>
+      </c>
+      <c r="F59">
+        <v>195.73599999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2038</v>
+      </c>
+      <c r="B60" s="10">
+        <v>556994.21700870991</v>
+      </c>
+      <c r="C60" s="8">
+        <v>891.78399999999999</v>
+      </c>
+      <c r="D60" s="8">
+        <v>27686.9</v>
+      </c>
+      <c r="E60">
+        <v>106586</v>
+      </c>
+      <c r="F60">
+        <v>196.44300000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2039</v>
+      </c>
+      <c r="B61" s="10">
+        <v>575087.37243950367</v>
+      </c>
+      <c r="C61" s="8">
+        <v>892.47799999999995</v>
+      </c>
+      <c r="D61" s="8">
+        <v>30592</v>
+      </c>
+      <c r="E61">
+        <v>108149</v>
+      </c>
+      <c r="F61">
+        <v>197.018</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2040</v>
+      </c>
+      <c r="B62" s="10">
+        <v>593483.09278857708</v>
+      </c>
+      <c r="C62" s="8">
+        <v>892.976</v>
+      </c>
+      <c r="D62" s="8">
+        <v>33521.9</v>
+      </c>
+      <c r="E62">
+        <v>109603</v>
+      </c>
+      <c r="F62">
+        <v>197.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>